--- a/학습자료/단답형/조선_중기.xlsx
+++ b/학습자료/단답형/조선_중기.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>대답</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>왕</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>대답</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>구분</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
         </is>
       </c>
     </row>
@@ -484,6 +489,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,6 +517,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -534,6 +545,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,6 +573,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -584,6 +601,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -609,6 +629,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -634,6 +657,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -659,6 +685,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -684,6 +713,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -709,6 +741,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -734,6 +769,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -759,6 +797,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -784,6 +825,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -809,6 +853,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -834,6 +881,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -859,6 +909,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -884,6 +937,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -909,6 +965,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -934,6 +993,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -959,6 +1021,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -984,6 +1049,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1009,6 +1077,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1034,6 +1105,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1059,6 +1133,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1084,6 +1161,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1109,6 +1189,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1134,6 +1217,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1159,6 +1245,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1184,6 +1273,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1209,6 +1301,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1234,6 +1329,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1259,6 +1357,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1284,6 +1385,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1309,6 +1413,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1334,6 +1441,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1359,6 +1469,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1384,6 +1497,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1409,6 +1525,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1434,6 +1553,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1459,6 +1581,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1484,6 +1609,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1509,6 +1637,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1534,6 +1665,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1559,6 +1693,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1584,6 +1721,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1609,6 +1749,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1634,6 +1777,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1659,6 +1805,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1684,6 +1833,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1709,6 +1861,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1734,6 +1889,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1759,6 +1917,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1784,6 +1945,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1809,6 +1973,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1834,6 +2001,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1859,6 +2029,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1884,6 +2057,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1909,6 +2085,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1934,6 +2113,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1959,6 +2141,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1984,6 +2169,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2009,6 +2197,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2034,6 +2225,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2059,6 +2253,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2084,6 +2281,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2109,6 +2309,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2134,6 +2337,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2159,6 +2365,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2184,6 +2393,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2209,6 +2421,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2234,6 +2449,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2259,6 +2477,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2284,6 +2505,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2309,6 +2533,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2334,6 +2561,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2359,6 +2589,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2384,6 +2617,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2409,6 +2645,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2434,6 +2673,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2459,6 +2701,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2484,6 +2729,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2509,6 +2757,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2534,6 +2785,9 @@
           <t>중기</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2558,6 +2812,9 @@
         <is>
           <t>중기</t>
         </is>
+      </c>
+      <c r="F85" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/조선_중기.xlsx
+++ b/학습자료/단답형/조선_중기.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="49">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="51">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="61">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="72">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="79">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/조선_중기.xlsx
+++ b/학습자료/단답형/조선_중기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>왕</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>대답</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>왕</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="32">
@@ -1326,11 +1326,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="33">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="34">
@@ -1382,11 +1382,11 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="35">
@@ -1410,11 +1410,11 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38">
@@ -1494,11 +1494,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="39">
@@ -1522,11 +1522,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="40">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1578,11 +1578,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42">
@@ -1606,11 +1606,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="44">
@@ -1662,11 +1662,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="45">
@@ -1690,11 +1690,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="46">
@@ -1718,11 +1718,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>중기</t>
+          <t>임진왜란</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="49">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="56">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="58">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="68">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/조선_중기.xlsx
+++ b/학습자료/단답형/조선_중기.xlsx
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="4">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="26">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="30">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="36">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="40">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="47">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="50">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="54">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="58">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="63">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="67">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="71">
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="79">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="84">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/조선_중기.xlsx
+++ b/학습자료/단답형/조선_중기.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,2387 +434,3232 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>시기</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>사건</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>왕</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>연도</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>질문</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>왕</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>대답</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>오답가산점</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>1510</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>삼포왜란</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>1510 : 중종</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>-3</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>삼포왜란</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1510 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>1512</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>임신약조 체결</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1512 : 중종</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>-4</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>임신약조 체결</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1512 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1517</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>비변사 설치</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1517 : 중종</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>-3</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>비변사 설치</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1517 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>1518</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>소격서 폐지</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1518 : 중종</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>-4</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>소격서 폐지</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1518 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>1518</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>이륜행실도 간행</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1518 : 중종</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>이륜행실도 간행</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1518 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>1519</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>조광조의 여씨향약 도입 및 향약 실시</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1519 : 중종</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>-4</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>조광조의 여씨향약 도입 및 향약 실시</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1519 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
         <v>1519</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>기묘사화</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1519 : 중종</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>-3</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>기묘사화</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1519 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
         <v>1527</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>최세진 훈몽자회 편찬</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1527 : 중종</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>-2</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>최세진 훈몽자회 편찬</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1527 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>1530</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>신증동국여지승람 편찬</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1530 : 중종</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>-2</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>신증동국여지승람 편찬</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1530 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
         <v>1541</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>군적수포제 실시</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1541 : 중종</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>-2</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>군적수포제 실시</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1541 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>1542</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>주세붕의 백운동서원 건립</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1542 : 중종</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>-5</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>주세붕의 백운동서원 건립</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1542 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
         <v>1544</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>사량진 왜변</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>중종</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1544 : 중종</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>-3</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>사량진 왜변</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1544 : 중종</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
         <v>1545</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>을사사화</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1545 : 명종</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>-5</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>을사사화</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1545 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
         <v>1547</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>정미약조</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1547 : 명종</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>-2</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>정미약조</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1547 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
         <v>1550</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>백운동서원 소수서원으로 사액</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1550 : 명종</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>-1</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>백운동서원 소수서원으로 사액</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1550 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
         <v>1555</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>제승방략 체제 실시</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1555 : 명종</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>-1</v>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>제승방략 체제 실시</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1555 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
         <v>1555</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>을묘왜변</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1555 : 명종</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>-2</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>을묘왜변</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1555 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
         <v>1555</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>비변사 상설기구화</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1555 : 명종</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>-3</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>비변사 상설기구화</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1555 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
         <v>1556</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>직전법 폐지</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1556 : 명종</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>-3</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>직전법 폐지</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
         <v>1556</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>이황의 예안향약 시행</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1556 : 명종</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>이황의 예안향약 시행</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1556 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>1559</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>임꺽정의 난</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>명종</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1559 : 명종</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>-2</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>임꺽정의 난</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>1559 : 명종</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>1571</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>이이의 서원향약 시행</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1571 : 선조</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>-3</v>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>이이의 서원향약 시행</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1571 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
         <v>1575</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>사림의 동서 붕당 형성</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1575 : 선조</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>-5</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>사림의 동서 붕당 형성</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1575 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>1575</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>이이 성학집요 저술</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1575 : 선조</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>-5</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>이이 성학집요 저술</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1575 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>1577</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>이이 격몽요결 저술</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1577 : 선조</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>-4</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>이이 격몽요결 저술</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1577 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>1577</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>이이의 해주향약 시행</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1577 : 선조</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>-5</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>이이의 해주향약 시행</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>1577 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>1580</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>이이 기자실기 저술</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1580 : 선조</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>-2</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>이이 기자실기 저술</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1580 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>1583</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>니탕개의 난</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1583 : 선조</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>-4</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>니탕개의 난</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1583 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
         <v>1589</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>정여립 모반 사건</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1589 : 선조</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>-4</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>정여립 모반 사건</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1589 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
         <v>1591</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>정철의 건저 사건</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1591 : 선조</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>-5</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>정철의 건저 사건</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1591 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
         <v>1592</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>임진왜란 발발</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1592 : 선조</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>-5</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>임진왜란 발발</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
         <v>1592</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>이순신 옥포 사천 당포해전 승리</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1592 : 선조</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>-4</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>이순신 옥포 사천 당포해전 승리</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
         <v>1592</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>왜군 한양 및 평양성 함락</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1592 : 선조</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>-6</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>왜군 한양 및 평양성 함락</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
         <v>1592</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>이순신 한산도 대첩 승리</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1592 : 선조</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>-5</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>이순신 한산도 대첩 승리</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
         <v>1592</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>금산전투 패전</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1592 : 선조</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>-3</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>금산전투 패전</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
         <v>1592</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>김시민 진주대첩</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1592 : 선조</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>-2</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>김시민 진주대첩</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1592 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
         <v>1593</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>조명 연합군의 평양성 탈환</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1593 : 선조</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>-4</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>조명 연합군의 평양성 탈환</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>1593 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>1593</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>권율 행주대첩</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1593 : 선조</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>-5</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>권율 행주대첩</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1593 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
         <v>1593</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>선조 한양 환도</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1593 : 선조</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>-2</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>선조 한양 환도</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1593 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
         <v>1594</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>훈련도감 설치</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1594 : 선조</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>-5</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>훈련도감 설치</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1594 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
         <v>1594</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>속오군체제로 개편</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1594 : 선조</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>-3</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>속오군체제로 개편</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1594 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
         <v>1596</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>이몽학의 난</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1596 : 선조</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>-5</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>이몽학의 난</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1596 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
         <v>1597</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>정유재란 발발</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1597 : 선조</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>-3</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>정유재란 발발</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>1597 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
         <v>1597</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>이순신 명량 대첩 승리</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1597 : 선조</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>-4</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>이순신 명량 대첩 승리</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>1597 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
         <v>1598</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>이순신 노량 해전 승리</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1598 : 선조</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>임진왜란</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>-6</v>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>이순신 노량 해전 승리</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>1598 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
         <v>1603</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>경재소 혁파</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1603 : 선조</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>-3</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>경재소 혁파</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1603 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
         <v>1605</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>일본과 국교 재개</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1605 : 선조</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>-5</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>일본과 국교 재개</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1605 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
         <v>1607</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>통신사 파견 시작</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>선조</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1607 : 선조</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>-3</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>통신사 파견 시작</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1607 : 선조</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
         <v>1608</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>경기도에 대동법 실시</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1608 : 광해군</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>-3</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>경기도에 대동법 실시</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1608 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
         <v>1609</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>기유약조</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1609 : 광해군</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>-1</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>기유약조</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>1609 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
         <v>1610</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>허준 동의보감 편찬</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1610 : 광해군</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>-4</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>허준 동의보감 편찬</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>1610 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
         <v>1610</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>창덕궁 중건</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1610 : 광해군</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>-3</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>창덕궁 중건</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1610 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
         <v>1611</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>회퇴변척</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1611 : 광해군</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>-3</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>회퇴변척</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>1611 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
         <v>1613</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>계축옥사</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1613 : 광해군</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>-4</v>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>계축옥사</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>1613 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>1614</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>이수광 지봉유설 집필</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1614 : 광해군</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>-2</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>이수광 지봉유설 집필</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>1614 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
         <v>1615</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>한백겸 동국지리지 집필</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1615 : 광해군</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>-4</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>한백겸 동국지리지 집필</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>1615 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
         <v>1616</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>창경궁 중건</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1616 : 광해군</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>-1</v>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>창경궁 중건</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>1616 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
         <v>1618</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>인목대위 폐위</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1618 : 광해군</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>-2</v>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>인목대위 폐위</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>1618 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
         <v>1622</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>모문룡의 가도 사건</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1622 : 광해군</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>-3</v>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>모문룡의 가도 사건</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>1622 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
         <v>1623</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>경희궁 건립</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1623 : 광해군</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>-2</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>경희궁 건립</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>1623 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
         <v>1623</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>인조반정</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>광해군</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1623 : 광해군</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>-5</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>인조반정</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>1623 : 광해군</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
         <v>1623</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>어영청 설치</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1623 : 인조</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>-3</v>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>어영청 설치</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>1623 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
         <v>1624</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>이괄의 난</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1624 : 인조</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>-5</v>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>이괄의 난</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1624 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
         <v>1624</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>총융청 설치</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1624 : 인조</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>-5</v>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>총융청 설치</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>1624 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>1627</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>수어청 설치</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1627 : 인조</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>-4</v>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>수어청 설치</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1627 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
         <v>1627</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>벨테브레 제주도 표류</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1627 : 인조</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>-2</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>벨테브레 제주도 표류</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>1627 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
         <v>1627</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>정묘호란 발발</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1627 : 인조</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>-1</v>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>정묘호란 발발</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1627 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
         <v>1633</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>조선통보 재발행</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1633 : 인조</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>-4</v>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>조선통보 재발행</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>1633 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
         <v>1634</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>상평통보 발행 시작</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1634 : 인조</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>-3</v>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>상평통보 발행 시작</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1634 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
         <v>1635</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>영정법 실시</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1635 : 인조</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>-3</v>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>영정법 실시</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>1635 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
         <v>1636</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>병자호란 발발</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1636 : 인조</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>-4</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>병자호란 발발</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1636 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
         <v>1637</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>삼전도의 굴욕</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>인조</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1637 : 인조</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>-4</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>삼전도의 굴욕</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1637 : 인조</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>1651</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>설점수세제 실시</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1651 : 효종</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>-2</v>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>설점수세제 실시</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>1651 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
         <v>1653</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>시헌력 사용</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1653 : 효종</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>-1</v>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>시헌력 사용</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>1653 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
         <v>1653</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>하멜 제주도에 표류</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1653 : 효종</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>-5</v>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>하멜 제주도에 표류</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>1653 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
         <v>1653</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>양척 동일법 실시</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1653 : 효종</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>-5</v>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>양척 동일법 실시</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1653 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
         <v>1654</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>변급의 1차 나선정벌</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1654 : 효종</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>-6</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>변급의 1차 나선정벌</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>1654 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
         <v>1655</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>신속 농가집성 편찬</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1655 : 효종</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>-1</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>신속 농가집성 편찬</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1655 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
         <v>1655</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>노비추쇄도감 설치</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1655 : 효종</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
-        <v>-4</v>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>노비추쇄도감 설치</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>1655 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
         <v>1656</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>유형원 동국여지지 제작</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1656 : 효종</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>-2</v>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>유형원 동국여지지 제작</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1656 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
         <v>1658</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>신유의 2차 나선정벌</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>효종</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1658 : 효종</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>-5</v>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>신유의 2차 나선정벌</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>1658 : 효종</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
         <v>1659</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>기해예송</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>현종</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1659 : 현종</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>-5</v>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>기해예송</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>1659 : 현종</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
         <v>1667</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>유계 여사제강 저술</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>현종</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1667 : 현종</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
-        <v>-1</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>유계 여사제강 저술</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>1667 : 현종</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
         <v>1674</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>갑인예송</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>현종</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1674 : 현종</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>중기</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
-        <v>-4</v>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>중기</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>갑인예송</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>1674 : 현종</t>
+        </is>
       </c>
     </row>
   </sheetData>
